--- a/BACKEND/aantik/benchmarking.xlsx
+++ b/BACKEND/aantik/benchmarking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\workspace-spring-tool-suite-4-4.11.0.RELEASE\aantik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuerv\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7AADAFF-F91B-41A1-9186-11EEBCF89CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD884BA-8313-4998-B8A4-0A4300FBC6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DD303F0C-09AC-42E8-A7D7-89F73E5624C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD303F0C-09AC-42E8-A7D7-89F73E5624C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Definiciones" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Indicadores Benchmarking</t>
   </si>
@@ -106,6 +106,33 @@
   </si>
   <si>
     <t>Es el conjunto de acciones que se realizan para lograr cumplir los objetivos de la empresa, teniendo conocimiento previo de de la cantidad de recursos que se utilizan para ello.</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-7</t>
+  </si>
+  <si>
+    <t>7-23-24-25-78</t>
+  </si>
+  <si>
+    <t>76-77-78-79-80</t>
+  </si>
+  <si>
+    <t>41-42-43-44-45-46-47-48-49-50</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>14-15-16-17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -262,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -285,9 +312,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -307,7 +337,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -605,11 +635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D15DB-ACAA-458A-89A6-5E376BC329C2}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" customWidth="1"/>
     <col min="2" max="2" width="105.77734375" customWidth="1"/>
@@ -623,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -631,7 +661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -639,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -647,7 +677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -655,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -663,7 +693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -671,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -679,7 +709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -687,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -695,7 +725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -711,283 +741,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFC86B9-39E2-4E80-9546-D3F78537E0A4}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8">
-        <v>25</v>
-      </c>
-      <c r="F3" s="8">
-        <v>78</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
-        <v>76</v>
-      </c>
-      <c r="C4" s="8">
-        <v>77</v>
-      </c>
-      <c r="D4" s="8">
-        <v>78</v>
-      </c>
-      <c r="E4" s="8">
-        <v>79</v>
-      </c>
-      <c r="F4" s="8">
-        <v>80</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8">
-        <v>42</v>
-      </c>
-      <c r="D6" s="8">
-        <v>43</v>
-      </c>
-      <c r="E6" s="8">
-        <v>44</v>
-      </c>
-      <c r="F6" s="8">
-        <v>45</v>
-      </c>
-      <c r="G6" s="8">
-        <v>46</v>
-      </c>
-      <c r="H6" s="8">
-        <v>47</v>
-      </c>
-      <c r="I6" s="8">
-        <v>48</v>
-      </c>
-      <c r="J6" s="8">
-        <v>49</v>
-      </c>
-      <c r="K6" s="8">
-        <v>50</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8">
-        <v>17</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4</v>
-      </c>
-      <c r="F10" s="8">
-        <v>5</v>
-      </c>
-      <c r="G10" s="8">
-        <v>6</v>
-      </c>
-      <c r="H10" s="8">
-        <v>7</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5 B8 B11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>